--- a/DataSheet/Mars.xlsx
+++ b/DataSheet/Mars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chriselyn/Projects/Task2_Mars_Project/DataSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491D01BA-A4CA-1A4D-80ED-E50CA5343C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F31AEC1-99C9-AB48-8502-7AD3001CFA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" activeTab="1" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Password</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>acer5610</t>
+  </si>
+  <si>
+    <t>Tag2</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,7 +657,7 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I2">
         <v>5</v>
